--- a/management/Maudanhgiaduan.xlsx
+++ b/management/Maudanhgiaduan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alannguyen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project2017\ProjectCNPM2017\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Trì hoãn</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -209,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,10 +227,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,7 +522,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,25 +538,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -558,11 +570,15 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,11 +591,15 @@
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,11 +612,15 @@
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,11 +633,15 @@
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,11 +654,15 @@
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,11 +675,15 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,11 +696,15 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -677,11 +717,15 @@
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,11 +738,15 @@
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/management/Maudanhgiaduan.xlsx
+++ b/management/Maudanhgiaduan.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -598,7 +598,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -619,7 +619,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -640,7 +640,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -661,7 +661,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -682,7 +682,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -703,7 +703,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -745,7 +745,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
     </row>
